--- a/data/trans_bre/P19C08-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Dificultad-trans_bre.xlsx
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.09015522263453246</v>
+        <v>-0.1110062708047567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1864398425524894</v>
+        <v>-0.2533834531947053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5919519321363914</v>
+        <v>-0.5546372384241819</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.463402747611439</v>
+        <v>-0.5024291660762261</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.051183422545154</v>
+        <v>2.100365574654261</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6155706589574739</v>
+        <v>0.5835471673445348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3791783855346425</v>
+        <v>0.3853212031139471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7221914151162667</v>
+        <v>0.69455646679544</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -725,7 +725,7 @@
         <v>0.2807097275820941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.0166170736405799</v>
+        <v>-0.01661707364057994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.510929753380546</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.04897515210717818</v>
+        <v>-0.04897515210717831</v>
       </c>
     </row>
     <row r="8">
@@ -750,20 +750,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5938712924141979</v>
+        <v>-0.6998095329893882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7816367676937499</v>
+        <v>-0.7273593605956973</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4833830401572827</v>
+        <v>-0.5183326356567848</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6747479656208732</v>
+        <v>-0.6489892437038861</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -776,20 +776,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2297271991988435</v>
+        <v>0.2312940648341971</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.147939275377531</v>
+        <v>1.168323040652669</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8529478972137721</v>
+        <v>0.9348094727898617</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4649362871999424</v>
+        <v>0.4426768957828398</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>3.649862047514319</v>
+        <v>4.062198100353656</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2177430284638919</v>
+        <v>-0.2181420702684946</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.623078024847245</v>
+        <v>-1.612467879946948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4323704555881849</v>
+        <v>-0.4351352968925899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.608569213498435</v>
+        <v>-1.379998972745655</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.8464207459079581</v>
+        <v>-0.8026000473161974</v>
       </c>
     </row>
     <row r="12">
@@ -866,24 +866,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.342663246906784</v>
+        <v>0.339459213847867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1430411788133509</v>
+        <v>0.1374900705258903</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7302331958712138</v>
+        <v>0.6298314061561578</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.490919729167747</v>
+        <v>0.5211435226374874</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.099979541670122</v>
+        <v>0.5224986609840866</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.488903143222863</v>
+        <v>1.631099252921374</v>
       </c>
     </row>
     <row r="13">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.02606875383365228</v>
+        <v>-0.02606875383365237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.6552299987177022</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="I13" s="6" t="inlineStr"/>
       <c r="J13" s="6" t="n">
-        <v>-0.04824129743466687</v>
+        <v>-0.04824129743466703</v>
       </c>
     </row>
     <row r="14">
@@ -928,20 +928,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.090139870572077</v>
+        <v>-2.085124675143803</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.166151877165405</v>
+        <v>-1.076707615629924</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>-0.6894246707391418</v>
+        <v>-0.627600826344918</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.7489729625679797</v>
+        <v>-0.7805455821539039</v>
       </c>
     </row>
     <row r="15">
@@ -952,20 +952,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4649359116832639</v>
+        <v>0.5546891613639386</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.975708729311891</v>
+        <v>0.778963905530208</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.484375061855452</v>
+        <v>0.5234736746873926</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2.463236527100551</v>
+        <v>3.041093180595118</v>
       </c>
     </row>
     <row r="16">
@@ -1012,28 +1012,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1744034503911855</v>
+        <v>-0.2019422757387914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4495502851246327</v>
+        <v>-0.4822085858689617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1770935838822229</v>
+        <v>-0.1618933489781818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5124148616671</v>
+        <v>-0.4948647231565724</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3939232923809957</v>
+        <v>-0.4630090543406335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5356688663017676</v>
+        <v>-0.5540688538620201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7798142400667929</v>
+        <v>-0.7385675591520905</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.618388394372767</v>
+        <v>-0.6118778852704129</v>
       </c>
     </row>
     <row r="18">
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5890121818639859</v>
+        <v>0.5699075337257987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.380153073637861</v>
+        <v>0.3421991509585051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2794290093219676</v>
+        <v>0.3184095689127308</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.233684352454718</v>
+        <v>0.2183430552213469</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.315876539186672</v>
+        <v>2.86692454204891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9408208262983283</v>
+        <v>0.9040103045840799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.265091120453484</v>
+        <v>7.001658144942413</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7787905611121978</v>
+        <v>0.7798164330423587</v>
       </c>
     </row>
     <row r="19">
